--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F8" s="3">
         <v>6100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>600</v>
       </c>
       <c r="N10" s="3">
         <v>700</v>
       </c>
       <c r="O10" s="3">
+        <v>600</v>
+      </c>
+      <c r="P10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,13 +907,15 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
@@ -900,34 +927,40 @@
         <v>600</v>
       </c>
       <c r="H12" s="3">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>600</v>
+      </c>
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1300</v>
       </c>
       <c r="P12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-3300</v>
       </c>
       <c r="J18" s="3">
         <v>-4500</v>
       </c>
       <c r="K18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,29 +1244,31 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1215,60 +1282,72 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1284,14 +1363,14 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1303,60 +1382,72 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,29 +1840,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1743,60 +1882,72 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1200</v>
       </c>
       <c r="O43" s="3">
         <v>1800</v>
       </c>
       <c r="P43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="E44" s="3">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="F44" s="3">
         <v>2400</v>
       </c>
       <c r="G44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I44" s="3">
         <v>2900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F46" s="3">
         <v>14200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>14700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>17300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>23200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>27100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>16200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>19100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>19300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,52 +2485,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
       <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,13 +2685,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
@@ -2482,10 +2721,10 @@
         <v>1400</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2496,8 +2735,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F54" s="3">
         <v>17000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>20400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>24900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>20700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>19800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>20000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,122 +2879,136 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1100</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
@@ -2747,118 +3020,136 @@
         <v>1000</v>
       </c>
       <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F61" s="3">
         <v>15700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>17200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>17200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>17300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>17100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>15000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>14500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>14400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -2873,10 +3164,10 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2884,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F66" s="3">
         <v>28800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>29400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>30500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>30200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>25100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>26000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>23700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>23400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-189200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-185800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-182700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-179200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-175200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-170800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-166100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-162700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-158000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-154900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-151800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-148000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-144600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-12100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-8000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3647,10 +4044,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2600</v>
+        <v>-4400</v>
       </c>
       <c r="E89" s="3">
         <v>-2300</v>
       </c>
       <c r="F89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4131,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>13600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-5900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E8" s="3">
         <v>14600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E9" s="3">
         <v>12500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,7 +932,7 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>600</v>
@@ -933,34 +947,37 @@
         <v>600</v>
       </c>
       <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1500</v>
       </c>
       <c r="P12" s="3">
         <v>1500</v>
       </c>
       <c r="Q12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>16000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>11700</v>
       </c>
       <c r="K17" s="3">
         <v>11700</v>
       </c>
       <c r="L17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M17" s="3">
         <v>13400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-3000</v>
       </c>
       <c r="N18" s="3">
         <v>-3000</v>
       </c>
       <c r="O18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1289,7 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>-200</v>
@@ -1264,13 +1298,13 @@
         <v>-200</v>
       </c>
       <c r="H20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1288,66 +1322,72 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2900</v>
       </c>
       <c r="N21" s="3">
         <v>-2900</v>
       </c>
       <c r="O21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P21" s="3">
         <v>-3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,11 +1409,11 @@
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1388,7 +1428,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-3100</v>
       </c>
       <c r="N23" s="3">
         <v>-3100</v>
       </c>
       <c r="O23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3100</v>
       </c>
       <c r="N26" s="3">
         <v>-3100</v>
       </c>
       <c r="O26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3100</v>
       </c>
       <c r="N27" s="3">
         <v>-3100</v>
       </c>
       <c r="O27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
@@ -1864,13 +1934,13 @@
         <v>200</v>
       </c>
       <c r="H32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1888,66 +1958,72 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3100</v>
       </c>
       <c r="N33" s="3">
         <v>-3100</v>
       </c>
       <c r="O33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-3100</v>
       </c>
       <c r="N35" s="3">
         <v>-3100</v>
       </c>
       <c r="O35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,108 +2331,117 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>5100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2400</v>
       </c>
       <c r="H43" s="3">
         <v>2400</v>
       </c>
       <c r="I43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2800</v>
       </c>
       <c r="L43" s="3">
         <v>2800</v>
       </c>
       <c r="M43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E44" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,99 +2449,105 @@
         <v>3600</v>
       </c>
       <c r="E45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2500</v>
       </c>
       <c r="I45" s="3">
         <v>2500</v>
       </c>
       <c r="J45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E46" s="3">
         <v>20400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>15000</v>
       </c>
       <c r="L46" s="3">
         <v>15000</v>
       </c>
       <c r="M46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N46" s="3">
         <v>16900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,46 +2596,49 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
@@ -2539,10 +2647,13 @@
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,7 +2820,7 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
@@ -2727,7 +2847,7 @@
         <v>1400</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E54" s="3">
         <v>22800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,119 +3011,126 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>9800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>4800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2200</v>
       </c>
       <c r="L58" s="3">
         <v>2200</v>
       </c>
       <c r="M58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
@@ -3002,157 +3139,166 @@
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>13100</v>
       </c>
       <c r="J60" s="3">
         <v>13100</v>
       </c>
       <c r="K60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E61" s="3">
         <v>16000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>17200</v>
       </c>
       <c r="H61" s="3">
         <v>17200</v>
       </c>
       <c r="I61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J61" s="3">
         <v>17300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3170,7 +3316,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E66" s="3">
         <v>32600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-189200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-187600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-185800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-182700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-179200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-175200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-170800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-166100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-162700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-158000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-154900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-151800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-148000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-144600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-5300</v>
       </c>
       <c r="N76" s="3">
         <v>-5300</v>
       </c>
       <c r="O76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-3100</v>
       </c>
       <c r="N81" s="3">
         <v>-3100</v>
       </c>
       <c r="O81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4050,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>700</v>
       </c>
       <c r="Q100" s="3">
         <v>700</v>
       </c>
       <c r="R100" s="3">
+        <v>700</v>
+      </c>
+      <c r="S100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E8" s="3">
         <v>10900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E9" s="3">
         <v>9100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>400</v>
       </c>
       <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,7 +949,7 @@
         <v>700</v>
       </c>
       <c r="F12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
@@ -950,34 +964,37 @@
         <v>600</v>
       </c>
       <c r="K12" s="3">
+        <v>600</v>
+      </c>
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1500</v>
       </c>
       <c r="Q12" s="3">
         <v>1500</v>
       </c>
       <c r="R12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>11700</v>
       </c>
       <c r="L17" s="3">
         <v>11700</v>
       </c>
       <c r="M17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="N17" s="3">
         <v>13400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-3000</v>
       </c>
       <c r="O18" s="3">
         <v>-3000</v>
       </c>
       <c r="P18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1326,7 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
@@ -1301,13 +1335,13 @@
         <v>-200</v>
       </c>
       <c r="I20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1325,69 +1359,75 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2900</v>
       </c>
       <c r="O21" s="3">
         <v>-2900</v>
       </c>
       <c r="P21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,11 +1452,11 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1431,7 +1471,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-3100</v>
       </c>
       <c r="O23" s="3">
         <v>-3100</v>
       </c>
       <c r="P23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-3100</v>
       </c>
       <c r="O26" s="3">
         <v>-3100</v>
       </c>
       <c r="P26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-3100</v>
       </c>
       <c r="O27" s="3">
         <v>-3100</v>
       </c>
       <c r="P27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1928,7 +1998,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
@@ -1937,13 +2007,13 @@
         <v>200</v>
       </c>
       <c r="I32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1961,69 +2031,75 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-3100</v>
       </c>
       <c r="O33" s="3">
         <v>-3100</v>
       </c>
       <c r="P33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-3100</v>
       </c>
       <c r="O35" s="3">
         <v>-3100</v>
       </c>
       <c r="P35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2424,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2400</v>
       </c>
       <c r="I43" s="3">
         <v>2400</v>
       </c>
       <c r="J43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2800</v>
       </c>
       <c r="M43" s="3">
         <v>2800</v>
       </c>
       <c r="N43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
         <v>6100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
         <v>3600</v>
       </c>
       <c r="F45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2500</v>
       </c>
       <c r="J45" s="3">
         <v>2500</v>
       </c>
       <c r="K45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E46" s="3">
         <v>18700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>15000</v>
       </c>
       <c r="M46" s="3">
         <v>15000</v>
       </c>
       <c r="N46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O46" s="3">
         <v>16900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,49 +2704,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
       </c>
       <c r="P48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
@@ -2650,10 +2758,13 @@
         <v>600</v>
       </c>
       <c r="S48" s="3">
+        <v>600</v>
+      </c>
+      <c r="T48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2823,7 +2943,7 @@
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1400</v>
@@ -2850,7 +2970,7 @@
         <v>1400</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E54" s="3">
         <v>20600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,128 +3142,135 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>9100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2200</v>
       </c>
       <c r="M58" s="3">
         <v>2200</v>
       </c>
       <c r="N58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
@@ -3142,90 +3279,96 @@
         <v>1300</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E60" s="3">
         <v>12800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>13100</v>
       </c>
       <c r="K60" s="3">
         <v>13100</v>
       </c>
       <c r="L60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3233,52 +3376,55 @@
         <v>16500</v>
       </c>
       <c r="E61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F61" s="3">
         <v>16000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>17200</v>
       </c>
       <c r="I61" s="3">
         <v>17200</v>
       </c>
       <c r="J61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K61" s="3">
         <v>17300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3286,22 +3432,22 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3319,7 +3465,7 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E66" s="3">
         <v>29300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-193100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-191000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-189200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-187600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-185800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-182700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-179200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-175200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-170800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-166100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-162700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-158000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-154900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-151800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-148000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-144600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-5300</v>
       </c>
       <c r="O76" s="3">
         <v>-5300</v>
       </c>
       <c r="P76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-3100</v>
       </c>
       <c r="O81" s="3">
         <v>-3100</v>
       </c>
       <c r="P81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4252,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>700</v>
       </c>
       <c r="R100" s="3">
         <v>700</v>
       </c>
       <c r="S100" s="3">
+        <v>700</v>
+      </c>
+      <c r="T100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,283 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F8" s="3">
         <v>10200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="3">
         <v>8900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>9100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>12500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>10800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>600</v>
       </c>
       <c r="R10" s="3">
         <v>700</v>
       </c>
       <c r="S10" s="3">
+        <v>600</v>
+      </c>
+      <c r="T10" s="3">
+        <v>700</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,25 +962,27 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I12" s="3">
         <v>600</v>
@@ -967,34 +994,40 @@
         <v>600</v>
       </c>
       <c r="L12" s="3">
+        <v>600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>600</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1300</v>
       </c>
       <c r="T12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F17" s="3">
         <v>12200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>15100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>12600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-3300</v>
       </c>
       <c r="N18" s="3">
         <v>-4500</v>
       </c>
       <c r="O18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,41 +1379,43 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-200</v>
       </c>
       <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1362,72 +1429,84 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1455,14 +1534,14 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1474,72 +1553,84 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2100</v>
+        <v>-4000</v>
       </c>
       <c r="E23" s="3">
         <v>-1800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="G23" s="3">
         <v>-1800</v>
       </c>
       <c r="H23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2100</v>
+        <v>-4000</v>
       </c>
       <c r="E26" s="3">
         <v>-1800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="G26" s="3">
         <v>-1800</v>
       </c>
       <c r="H26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2100</v>
+        <v>-4000</v>
       </c>
       <c r="E27" s="3">
         <v>-1800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="G27" s="3">
         <v>-1800</v>
       </c>
       <c r="H27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,41 +2119,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>200</v>
       </c>
       <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2034,72 +2173,84 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2100</v>
+        <v>-4000</v>
       </c>
       <c r="E33" s="3">
         <v>-1800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="G33" s="3">
         <v>-1800</v>
       </c>
       <c r="H33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2100</v>
+        <v>-4000</v>
       </c>
       <c r="E35" s="3">
         <v>-1800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="G35" s="3">
         <v>-1800</v>
       </c>
       <c r="H35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F41" s="3">
         <v>14300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>9500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,232 +2606,262 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1200</v>
       </c>
       <c r="S43" s="3">
         <v>1800</v>
       </c>
       <c r="T43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2300</v>
       </c>
       <c r="J44" s="3">
         <v>2400</v>
       </c>
       <c r="K44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M44" s="3">
         <v>2900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>5000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F46" s="3">
         <v>26500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>20400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>19500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>14200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>23200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>27100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>20200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>16200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>19100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>19300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,64 +2916,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>600</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
       </c>
       <c r="T48" s="3">
+        <v>600</v>
+      </c>
+      <c r="U48" s="3">
+        <v>600</v>
+      </c>
+      <c r="V48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,25 +3164,31 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1300</v>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
       </c>
       <c r="G52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1400</v>
@@ -2973,10 +3212,10 @@
         <v>1400</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -2987,8 +3226,14 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F54" s="3">
         <v>28300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>22800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>17000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>17700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>20400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>24900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>20700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>19800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>20000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,158 +3402,172 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>8100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>9100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>9800</v>
       </c>
       <c r="G57" s="3">
         <v>9100</v>
       </c>
       <c r="H57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1100</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
@@ -3306,125 +3579,143 @@
         <v>1000</v>
       </c>
       <c r="S59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F60" s="3">
         <v>12900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>16500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>16500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>16000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>15800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>15700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>17200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>17200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>17100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>14900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>14500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>14400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>14300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3435,25 +3726,25 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3468,10 +3759,10 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3479,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F66" s="3">
         <v>29500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>32600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>30500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>28800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>29800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>29400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>30500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>30200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>25100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>24800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>24100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>26000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>23700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>23400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>20500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-198900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-194900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-193100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-191000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-189200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-187600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-185800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-182700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-179200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-175200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-170800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-166100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-162700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-158000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-154900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-151800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-148000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-144600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-8600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-11700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-12100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-9000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-8400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-8000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-6900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2100</v>
+        <v>-4000</v>
       </c>
       <c r="E81" s="3">
         <v>-1800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="G81" s="3">
         <v>-1800</v>
       </c>
       <c r="H81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4454,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4480,8 +4877,14 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2600</v>
       </c>
       <c r="I89" s="3">
         <v>-2300</v>
       </c>
       <c r="J89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-6600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4894,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5062,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>11300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>13600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-5900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,309 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>64400</v>
+      </c>
+      <c r="F8" s="3">
         <v>14900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>14600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>11400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>9400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F9" s="3">
         <v>13400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>8900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>9100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>12500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>10800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>8700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>5300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>700</v>
-      </c>
-      <c r="S10" s="3">
-        <v>600</v>
       </c>
       <c r="T10" s="3">
         <v>700</v>
       </c>
       <c r="U10" s="3">
+        <v>600</v>
+      </c>
+      <c r="V10" s="3">
+        <v>700</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,31 +990,33 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K12" s="3">
         <v>600</v>
@@ -1000,34 +1028,40 @@
         <v>600</v>
       </c>
       <c r="N12" s="3">
+        <v>600</v>
+      </c>
+      <c r="O12" s="3">
+        <v>600</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1300</v>
       </c>
       <c r="V12" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1122,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1190,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1258,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1285,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F17" s="3">
         <v>18800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>12000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>15100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>12600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-3300</v>
       </c>
       <c r="P18" s="3">
         <v>-4500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,47 +1447,49 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
       </c>
       <c r="L20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1435,78 +1503,90 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-3800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,14 +1620,14 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1559,78 +1639,90 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2100</v>
       </c>
       <c r="G23" s="3">
         <v>-1800</v>
       </c>
       <c r="H23" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="I23" s="3">
         <v>-1800</v>
       </c>
       <c r="J23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1851,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2100</v>
       </c>
       <c r="G26" s="3">
         <v>-1800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="I26" s="3">
         <v>-1800</v>
       </c>
       <c r="J26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2100</v>
       </c>
       <c r="G27" s="3">
         <v>-1800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="I27" s="3">
         <v>-1800</v>
       </c>
       <c r="J27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,47 +2259,53 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
       </c>
       <c r="L32" s="3">
+        <v>200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2179,78 +2319,90 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2100</v>
       </c>
       <c r="G33" s="3">
         <v>-1800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="I33" s="3">
         <v>-1800</v>
       </c>
       <c r="J33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2463,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2100</v>
       </c>
       <c r="G35" s="3">
         <v>-1800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="I35" s="3">
         <v>-1800</v>
       </c>
       <c r="J35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2660,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F41" s="3">
         <v>21600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>18200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2792,286 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1200</v>
       </c>
       <c r="U43" s="3">
         <v>1800</v>
       </c>
       <c r="V43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F44" s="3">
         <v>8600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>6100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>6000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2300</v>
       </c>
       <c r="L44" s="3">
         <v>2400</v>
       </c>
       <c r="M44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O44" s="3">
         <v>2900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>4500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>5000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>5600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>4900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F46" s="3">
         <v>41500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>26500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>18700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>20400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>19500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>14700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>17300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>23200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>16900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>20200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>19100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>19300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,70 +3132,82 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>600</v>
       </c>
       <c r="U48" s="3">
         <v>600</v>
       </c>
       <c r="V48" s="3">
+        <v>600</v>
+      </c>
+      <c r="W48" s="3">
+        <v>600</v>
+      </c>
+      <c r="X48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,31 +3404,37 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
@@ -3218,10 +3458,10 @@
         <v>1400</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3232,8 +3472,14 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3540,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>72900</v>
+      </c>
+      <c r="F54" s="3">
         <v>41800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>25300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>28300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>20600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>22800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>20400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>24900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>28800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>16800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>18800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>20700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>16800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>19800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>20000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,176 +3664,190 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F57" s="3">
         <v>11100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>9800</v>
       </c>
       <c r="I57" s="3">
         <v>9100</v>
       </c>
       <c r="J57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F58" s="3">
         <v>21900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>20800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1300</v>
       </c>
       <c r="L59" s="3">
         <v>1300</v>
       </c>
       <c r="M59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
@@ -3585,137 +3859,155 @@
         <v>1000</v>
       </c>
       <c r="U59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>36900</v>
+      </c>
+      <c r="F60" s="3">
         <v>34500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>27600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>13100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>16500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>16500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>16000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>15800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>15700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>17200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>17300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>17100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>15000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>14800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>14600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>14500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>14400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>14300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3732,25 +4024,25 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3765,10 +4057,10 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4272,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F66" s="3">
         <v>34700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>27900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>29500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>29300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>32600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>30500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>28800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>29800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>29400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>30200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>25100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>24800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>24100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>26000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>23700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>23400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>20500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-181800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-171100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-198900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-194900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-193100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-191000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-189200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-187600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-185800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-182700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-179200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-175200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-170800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-166100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-162700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-158000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-154900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-151800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-148000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-144600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4910,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-9700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-11700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-12100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-9000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-8400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-6900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5046,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2100</v>
       </c>
       <c r="G81" s="3">
         <v>-1800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="I81" s="3">
         <v>-1800</v>
       </c>
       <c r="J81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5217,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4857,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5621,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-2600</v>
       </c>
       <c r="K89" s="3">
         <v>-2300</v>
       </c>
       <c r="L89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-6600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,16 +5719,18 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5341,8 +5783,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,16 +5919,22 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5527,8 +5987,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6285,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F100" s="3">
         <v>14300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>11300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>13600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6421,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F102" s="3">
         <v>10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>11400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-5900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E8" s="3">
         <v>26700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E9" s="3">
         <v>24200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1500</v>
       </c>
       <c r="G10" s="3">
         <v>1500</v>
       </c>
       <c r="H10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
       <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1001,16 +1015,16 @@
         <v>2000</v>
       </c>
       <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>700</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
@@ -1019,7 +1033,7 @@
         <v>700</v>
       </c>
       <c r="K12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L12" s="3">
         <v>600</v>
@@ -1034,34 +1048,37 @@
         <v>600</v>
       </c>
       <c r="P12" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1500</v>
       </c>
       <c r="V12" s="3">
         <v>1500</v>
       </c>
       <c r="W12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E17" s="3">
         <v>37300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>11700</v>
       </c>
       <c r="Q17" s="3">
         <v>11700</v>
       </c>
       <c r="R17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="S17" s="3">
         <v>13400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-3000</v>
       </c>
       <c r="T18" s="3">
         <v>-3000</v>
       </c>
       <c r="U18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1482,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,16 +1492,16 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1476,7 +1510,7 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-200</v>
@@ -1485,13 +1519,13 @@
         <v>-200</v>
       </c>
       <c r="N20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O20" s="3">
         <v>-300</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1509,107 +1543,113 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>34400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2900</v>
       </c>
       <c r="T21" s="3">
         <v>-2900</v>
       </c>
       <c r="U21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="V21" s="3">
         <v>-3600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1626,11 +1666,11 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1645,7 +1685,7 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1653,76 +1693,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-3100</v>
       </c>
       <c r="T23" s="3">
         <v>-3100</v>
       </c>
       <c r="U23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1730,11 +1776,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1789,8 +1835,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-3100</v>
       </c>
       <c r="T26" s="3">
         <v>-3100</v>
       </c>
       <c r="U26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-3100</v>
       </c>
       <c r="T27" s="3">
         <v>-3100</v>
       </c>
       <c r="U27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-3800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2332,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2274,16 +2344,16 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2292,7 +2362,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>200</v>
@@ -2301,13 +2371,13 @@
         <v>200</v>
       </c>
       <c r="N32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O32" s="3">
         <v>300</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2325,84 +2395,90 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-3100</v>
       </c>
       <c r="T33" s="3">
         <v>-3100</v>
       </c>
       <c r="U33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-3800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-3100</v>
       </c>
       <c r="T35" s="3">
         <v>-3100</v>
       </c>
       <c r="U35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-3800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E41" s="3">
         <v>62300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,280 +2888,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4800</v>
+        <v>12700</v>
       </c>
       <c r="E43" s="3">
         <v>4800</v>
       </c>
       <c r="F43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G43" s="3">
         <v>5700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2400</v>
       </c>
       <c r="N43" s="3">
         <v>2400</v>
       </c>
       <c r="O43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2800</v>
       </c>
       <c r="R43" s="3">
         <v>2800</v>
       </c>
       <c r="S43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T43" s="3">
         <v>3000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E44" s="3">
         <v>19400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3600</v>
       </c>
       <c r="J45" s="3">
         <v>3600</v>
       </c>
       <c r="K45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2500</v>
       </c>
       <c r="O45" s="3">
         <v>2500</v>
       </c>
       <c r="P45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E46" s="3">
         <v>98100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>15000</v>
       </c>
       <c r="R46" s="3">
         <v>15000</v>
       </c>
       <c r="S46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="T46" s="3">
         <v>16900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,64 +3243,67 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
       <c r="U48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V48" s="3">
         <v>600</v>
@@ -3204,10 +3312,13 @@
         <v>600</v>
       </c>
       <c r="X48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,14 +3541,14 @@
       <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
+      <c r="F52" s="3">
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="3">
-        <v>1300</v>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
@@ -3437,7 +3557,7 @@
         <v>1300</v>
       </c>
       <c r="K52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
@@ -3464,7 +3584,7 @@
         <v>1400</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E54" s="3">
         <v>98900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,173 +3796,180 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E57" s="3">
         <v>28200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E58" s="3">
         <v>21200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2200</v>
       </c>
       <c r="R58" s="3">
         <v>2200</v>
       </c>
       <c r="S58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1600</v>
       </c>
       <c r="G59" s="3">
         <v>1600</v>
       </c>
       <c r="H59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
@@ -3841,105 +3978,111 @@
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1000</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
       </c>
       <c r="S59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E60" s="3">
         <v>50900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>13100</v>
       </c>
       <c r="P60" s="3">
         <v>13100</v>
       </c>
       <c r="Q60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="R60" s="3">
         <v>10000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3950,69 +4093,72 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>16500</v>
       </c>
       <c r="I61" s="3">
         <v>16500</v>
       </c>
       <c r="J61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K61" s="3">
         <v>16000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>17200</v>
       </c>
       <c r="N61" s="3">
         <v>17200</v>
       </c>
       <c r="O61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="P61" s="3">
         <v>17300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4030,22 +4176,22 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4063,7 +4209,7 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E66" s="3">
         <v>51000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-190100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-181800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-171100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-194900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-193100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-191000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-189200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-187600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-185800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-182700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-179200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-175200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-170800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-166100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-162700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-158000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-154900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-151800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-148000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-144600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-5300</v>
       </c>
       <c r="T76" s="3">
         <v>-5300</v>
       </c>
       <c r="U76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="V76" s="3">
         <v>-6900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-3100</v>
       </c>
       <c r="T81" s="3">
         <v>-3100</v>
       </c>
       <c r="U81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-3800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5417,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5261,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5287,8 +5486,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5941,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5730,11 +5951,11 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5789,8 +6010,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6152,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5934,11 +6164,11 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5993,8 +6223,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6534,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>25900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>700</v>
       </c>
       <c r="W100" s="3">
         <v>700</v>
       </c>
       <c r="X100" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E102" s="3">
         <v>18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,334 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E8" s="3">
         <v>36300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E9" s="3">
         <v>34300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1500</v>
       </c>
       <c r="H10" s="3">
         <v>1500</v>
       </c>
       <c r="I10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
       <c r="U10" s="3">
+        <v>400</v>
+      </c>
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,28 +1018,29 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="3">
         <v>2000</v>
       </c>
       <c r="F12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
@@ -1036,7 +1049,7 @@
         <v>700</v>
       </c>
       <c r="L12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M12" s="3">
         <v>600</v>
@@ -1051,34 +1064,37 @@
         <v>600</v>
       </c>
       <c r="Q12" s="3">
+        <v>600</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1500</v>
       </c>
       <c r="W12" s="3">
         <v>1500</v>
       </c>
       <c r="X12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1148,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E17" s="3">
         <v>44400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>11700</v>
       </c>
       <c r="R17" s="3">
         <v>11700</v>
       </c>
       <c r="S17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="T17" s="3">
         <v>13400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-3000</v>
       </c>
       <c r="U18" s="3">
         <v>-3000</v>
       </c>
       <c r="V18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,28 +1515,29 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1513,7 +1546,7 @@
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-200</v>
@@ -1522,13 +1555,13 @@
         <v>-200</v>
       </c>
       <c r="O20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P20" s="3">
         <v>-300</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1546,87 +1579,93 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-2900</v>
       </c>
       <c r="U21" s="3">
         <v>-2900</v>
       </c>
       <c r="V21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="W21" s="3">
         <v>-3600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,8 +1690,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -1669,11 +1708,11 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1688,7 +1727,7 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1696,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-3100</v>
       </c>
       <c r="U23" s="3">
         <v>-3100</v>
       </c>
       <c r="V23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1779,11 +1824,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1838,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-3100</v>
       </c>
       <c r="U26" s="3">
         <v>-3100</v>
       </c>
       <c r="V26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-3800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-3100</v>
       </c>
       <c r="U27" s="3">
         <v>-3100</v>
       </c>
       <c r="V27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-3800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,28 +2401,31 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2365,7 +2434,7 @@
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>200</v>
@@ -2374,13 +2443,13 @@
         <v>200</v>
       </c>
       <c r="O32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P32" s="3">
         <v>300</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2398,87 +2467,93 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-3100</v>
       </c>
       <c r="U33" s="3">
         <v>-3100</v>
       </c>
       <c r="V33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-3800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-3100</v>
       </c>
       <c r="U35" s="3">
         <v>-3100</v>
       </c>
       <c r="V35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-3800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E41" s="3">
         <v>47700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,292 +2980,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>12700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4800</v>
       </c>
       <c r="F43" s="3">
         <v>4800</v>
       </c>
       <c r="G43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H43" s="3">
         <v>5700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2400</v>
       </c>
       <c r="O43" s="3">
         <v>2400</v>
       </c>
       <c r="P43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2800</v>
       </c>
       <c r="S43" s="3">
         <v>2800</v>
       </c>
       <c r="T43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U43" s="3">
         <v>3000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E44" s="3">
         <v>15700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3600</v>
       </c>
       <c r="K45" s="3">
         <v>3600</v>
       </c>
       <c r="L45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2500</v>
       </c>
       <c r="P45" s="3">
         <v>2500</v>
       </c>
       <c r="Q45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E46" s="3">
         <v>88000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>98100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>72200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>15000</v>
       </c>
       <c r="S46" s="3">
         <v>15000</v>
       </c>
       <c r="T46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="U46" s="3">
         <v>16900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3246,67 +3350,70 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>500</v>
       </c>
       <c r="V48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W48" s="3">
         <v>600</v>
@@ -3315,10 +3422,13 @@
         <v>600</v>
       </c>
       <c r="Y48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3544,14 +3663,14 @@
       <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
+      <c r="G52" s="3">
+        <v>200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="3">
-        <v>1300</v>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
@@ -3560,7 +3679,7 @@
         <v>1300</v>
       </c>
       <c r="L52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
@@ -3587,7 +3706,7 @@
         <v>1400</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3601,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E54" s="3">
         <v>91200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,182 +3926,189 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E57" s="3">
         <v>25900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
         <v>7600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2200</v>
       </c>
       <c r="S58" s="3">
         <v>2200</v>
       </c>
       <c r="T58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1600</v>
       </c>
       <c r="H59" s="3">
         <v>1600</v>
       </c>
       <c r="I59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
@@ -3981,108 +4117,114 @@
         <v>1300</v>
       </c>
       <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E60" s="3">
         <v>35400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>13100</v>
       </c>
       <c r="Q60" s="3">
         <v>13100</v>
       </c>
       <c r="R60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="S60" s="3">
         <v>10000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4096,72 +4238,75 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>16500</v>
       </c>
       <c r="J61" s="3">
         <v>16500</v>
       </c>
       <c r="K61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="L61" s="3">
         <v>16000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>17200</v>
       </c>
       <c r="O61" s="3">
         <v>17200</v>
       </c>
       <c r="P61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>17300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4179,22 +4324,22 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4212,7 +4357,7 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4223,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E66" s="3">
         <v>37100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-195900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-190100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-181800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-171100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-198900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-194900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-193100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-191000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-189200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-187600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-185800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-182700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-179200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-175200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-170800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-166100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-162700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-158000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-154900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-151800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-148000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-144600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E76" s="3">
         <v>54000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-5300</v>
       </c>
       <c r="U76" s="3">
         <v>-5300</v>
       </c>
       <c r="V76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="W76" s="3">
         <v>-6900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-3100</v>
       </c>
       <c r="U81" s="3">
         <v>-3100</v>
       </c>
       <c r="V81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-3800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,13 +5615,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5463,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5489,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5954,11 +6174,11 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6013,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6167,11 +6396,11 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6226,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>25900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>13600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>700</v>
       </c>
       <c r="X100" s="3">
         <v>700</v>
       </c>
       <c r="Y100" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E8" s="3">
         <v>50200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E9" s="3">
         <v>46800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1500</v>
       </c>
       <c r="I10" s="3">
         <v>1500</v>
       </c>
       <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
-      </c>
-      <c r="T10" s="3">
-        <v>400</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
       </c>
       <c r="V10" s="3">
+        <v>400</v>
+      </c>
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,31 +1032,32 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2000</v>
       </c>
       <c r="F12" s="3">
         <v>2000</v>
       </c>
       <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>700</v>
       </c>
       <c r="K12" s="3">
         <v>700</v>
@@ -1052,7 +1066,7 @@
         <v>700</v>
       </c>
       <c r="M12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N12" s="3">
         <v>600</v>
@@ -1067,34 +1081,37 @@
         <v>600</v>
       </c>
       <c r="R12" s="3">
+        <v>600</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1500</v>
       </c>
       <c r="X12" s="3">
         <v>1500</v>
       </c>
       <c r="Y12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z12" s="3">
         <v>1300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E17" s="3">
         <v>56100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>11700</v>
       </c>
       <c r="S17" s="3">
         <v>11700</v>
       </c>
       <c r="T17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="U17" s="3">
         <v>13400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-3000</v>
       </c>
       <c r="V18" s="3">
         <v>-3000</v>
       </c>
       <c r="W18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="X18" s="3">
         <v>-3700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
@@ -1549,7 +1583,7 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
@@ -1558,13 +1592,13 @@
         <v>-200</v>
       </c>
       <c r="P20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>-300</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1582,90 +1616,96 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-2900</v>
       </c>
       <c r="V21" s="3">
         <v>-2900</v>
       </c>
       <c r="W21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X21" s="3">
         <v>-3600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,8 +1733,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1711,11 +1751,11 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1730,7 +1770,7 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-3100</v>
       </c>
       <c r="V23" s="3">
         <v>-3100</v>
       </c>
       <c r="W23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-3800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1827,11 +1873,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-3100</v>
       </c>
       <c r="V26" s="3">
         <v>-3100</v>
       </c>
       <c r="W26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-3800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-3100</v>
       </c>
       <c r="V27" s="3">
         <v>-3100</v>
       </c>
       <c r="W27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-3800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,22 +2483,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
@@ -2437,7 +2507,7 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
@@ -2446,13 +2516,13 @@
         <v>200</v>
       </c>
       <c r="P32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="3">
         <v>300</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2470,90 +2540,96 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-3100</v>
       </c>
       <c r="V33" s="3">
         <v>-3100</v>
       </c>
       <c r="W33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-3800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-3100</v>
       </c>
       <c r="V35" s="3">
         <v>-3100</v>
       </c>
       <c r="W35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-3800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E41" s="3">
         <v>37500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,304 +3073,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4800</v>
       </c>
       <c r="G43" s="3">
         <v>4800</v>
       </c>
       <c r="H43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I43" s="3">
         <v>5700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2400</v>
       </c>
       <c r="P43" s="3">
         <v>2400</v>
       </c>
       <c r="Q43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>2800</v>
       </c>
       <c r="T43" s="3">
         <v>2800</v>
       </c>
       <c r="U43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V43" s="3">
         <v>3000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E44" s="3">
         <v>19500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>22000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3600</v>
       </c>
       <c r="L45" s="3">
         <v>3600</v>
       </c>
       <c r="M45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>2500</v>
       </c>
       <c r="Q45" s="3">
         <v>2500</v>
       </c>
       <c r="R45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E46" s="3">
         <v>84800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>88000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>72200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>15000</v>
       </c>
       <c r="T46" s="3">
         <v>15000</v>
       </c>
       <c r="U46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="V46" s="3">
         <v>16900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,70 +3458,73 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
       </c>
       <c r="S48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>400</v>
       </c>
       <c r="U48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>500</v>
       </c>
       <c r="W48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X48" s="3">
         <v>600</v>
@@ -3425,10 +3533,13 @@
         <v>600</v>
       </c>
       <c r="Z48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,13 +3766,16 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>200</v>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -3666,14 +3786,14 @@
       <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
+      <c r="H52" s="3">
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="3">
-        <v>1300</v>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
@@ -3682,7 +3802,7 @@
         <v>1300</v>
       </c>
       <c r="M52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1400</v>
@@ -3709,7 +3829,7 @@
         <v>1400</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E54" s="3">
         <v>88500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>91200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,191 +4057,198 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E57" s="3">
         <v>29000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2200</v>
       </c>
       <c r="T58" s="3">
         <v>2200</v>
       </c>
       <c r="U58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1600</v>
       </c>
       <c r="I59" s="3">
         <v>1600</v>
       </c>
       <c r="J59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1300</v>
       </c>
       <c r="O59" s="3">
         <v>1300</v>
@@ -4120,116 +4257,122 @@
         <v>1300</v>
       </c>
       <c r="Q59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1000</v>
       </c>
       <c r="T59" s="3">
         <v>1000</v>
       </c>
       <c r="U59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E60" s="3">
         <v>36100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>13100</v>
       </c>
       <c r="R60" s="3">
         <v>13100</v>
       </c>
       <c r="S60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="T60" s="3">
         <v>10000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4241,64 +4384,67 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>16500</v>
       </c>
       <c r="K61" s="3">
         <v>16500</v>
       </c>
       <c r="L61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="M61" s="3">
         <v>16000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>17200</v>
       </c>
       <c r="P61" s="3">
         <v>17200</v>
       </c>
       <c r="Q61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="R61" s="3">
         <v>17300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4306,10 +4452,10 @@
         <v>2100</v>
       </c>
       <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -4327,22 +4473,22 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4360,7 +4506,7 @@
         <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E66" s="3">
         <v>38300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-200900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-195900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-190100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-181800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-171100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-198900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-194900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-193100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-191000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-189200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-187600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-185800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-182700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-179200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-175200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-170800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-166100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-162700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-158000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-154900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-151800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-148000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-144600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E76" s="3">
         <v>50200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-5300</v>
       </c>
       <c r="V76" s="3">
         <v>-5300</v>
       </c>
       <c r="W76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="X76" s="3">
         <v>-6900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-3100</v>
       </c>
       <c r="V81" s="3">
         <v>-3100</v>
       </c>
       <c r="W81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-3800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5625,7 +5824,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5664,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,13 +6382,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
@@ -6177,11 +6398,11 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,13 +6611,16 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -6399,11 +6629,11 @@
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>25900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>13600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
-      </c>
-      <c r="X100" s="3">
-        <v>700</v>
       </c>
       <c r="Y100" s="3">
         <v>700</v>
       </c>
       <c r="Z100" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E8" s="3">
         <v>55400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E9" s="3">
         <v>50600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>46800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1500</v>
       </c>
       <c r="J10" s="3">
         <v>1500</v>
       </c>
       <c r="K10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
-      </c>
-      <c r="U10" s="3">
-        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>400</v>
       </c>
       <c r="W10" s="3">
+        <v>400</v>
+      </c>
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,34 +1046,35 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2000</v>
       </c>
       <c r="G12" s="3">
         <v>2000</v>
       </c>
       <c r="H12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>700</v>
       </c>
       <c r="L12" s="3">
         <v>700</v>
@@ -1069,7 +1083,7 @@
         <v>700</v>
       </c>
       <c r="N12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O12" s="3">
         <v>600</v>
@@ -1084,34 +1098,37 @@
         <v>600</v>
       </c>
       <c r="S12" s="3">
+        <v>600</v>
+      </c>
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1200</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1500</v>
       </c>
       <c r="Y12" s="3">
         <v>1500</v>
       </c>
       <c r="Z12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E17" s="3">
         <v>60300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>11700</v>
       </c>
       <c r="T17" s="3">
         <v>11700</v>
       </c>
       <c r="U17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="V17" s="3">
         <v>13400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-3000</v>
       </c>
       <c r="W18" s="3">
         <v>-3000</v>
       </c>
       <c r="X18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,34 +1583,35 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
@@ -1586,7 +1620,7 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-200</v>
@@ -1595,13 +1629,13 @@
         <v>-200</v>
       </c>
       <c r="Q20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R20" s="3">
         <v>-300</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1619,93 +1653,99 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-2900</v>
       </c>
       <c r="W21" s="3">
         <v>-2900</v>
       </c>
       <c r="X21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1736,8 +1776,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
@@ -1754,11 +1794,11 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1773,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1781,85 +1821,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-3100</v>
       </c>
       <c r="W23" s="3">
         <v>-3100</v>
       </c>
       <c r="X23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1876,11 +1922,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-3100</v>
       </c>
       <c r="W26" s="3">
         <v>-3100</v>
       </c>
       <c r="X26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-3100</v>
       </c>
       <c r="W27" s="3">
         <v>-3100</v>
       </c>
       <c r="X27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,34 +2541,37 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
@@ -2510,7 +2580,7 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>200</v>
@@ -2519,13 +2589,13 @@
         <v>200</v>
       </c>
       <c r="Q32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R32" s="3">
         <v>300</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2543,93 +2613,99 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-3100</v>
       </c>
       <c r="W33" s="3">
         <v>-3100</v>
       </c>
       <c r="X33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-3100</v>
       </c>
       <c r="W35" s="3">
         <v>-3100</v>
       </c>
       <c r="X35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E41" s="3">
         <v>40500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3166,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E43" s="3">
         <v>12300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4800</v>
       </c>
       <c r="H43" s="3">
         <v>4800</v>
       </c>
       <c r="I43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J43" s="3">
         <v>5700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2400</v>
       </c>
       <c r="Q43" s="3">
         <v>2400</v>
       </c>
       <c r="R43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2800</v>
       </c>
       <c r="U43" s="3">
         <v>2800</v>
       </c>
       <c r="V43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W43" s="3">
         <v>3000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E44" s="3">
         <v>21900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3600</v>
       </c>
       <c r="M45" s="3">
         <v>3600</v>
       </c>
       <c r="N45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>2500</v>
       </c>
       <c r="R45" s="3">
         <v>2500</v>
       </c>
       <c r="S45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E46" s="3">
         <v>95800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>84800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>88000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>15000</v>
       </c>
       <c r="U46" s="3">
         <v>15000</v>
       </c>
       <c r="V46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W46" s="3">
         <v>16900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>20200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>19300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,73 +3566,76 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
       </c>
       <c r="T48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
       </c>
       <c r="V48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W48" s="3">
         <v>500</v>
       </c>
       <c r="X48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y48" s="3">
         <v>600</v>
@@ -3536,10 +3644,13 @@
         <v>600</v>
       </c>
       <c r="AA48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,16 +3886,19 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="3">
-        <v>200</v>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3789,14 +3909,14 @@
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="3">
-        <v>1300</v>
+      <c r="K52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L52" s="3">
         <v>1300</v>
@@ -3805,7 +3925,7 @@
         <v>1300</v>
       </c>
       <c r="N52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O52" s="3">
         <v>1400</v>
@@ -3832,7 +3952,7 @@
         <v>1400</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E54" s="3">
         <v>99600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>91200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>72900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,200 +4188,207 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E57" s="3">
         <v>38300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2200</v>
       </c>
       <c r="U58" s="3">
         <v>2200</v>
       </c>
       <c r="V58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W58" s="3">
         <v>2000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1600</v>
       </c>
       <c r="J59" s="3">
         <v>1600</v>
       </c>
       <c r="K59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1300</v>
       </c>
       <c r="P59" s="3">
         <v>1300</v>
@@ -4260,114 +4397,120 @@
         <v>1300</v>
       </c>
       <c r="R59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1000</v>
       </c>
       <c r="U59" s="3">
         <v>1000</v>
       </c>
       <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E60" s="3">
         <v>49400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>13100</v>
       </c>
       <c r="S60" s="3">
         <v>13100</v>
       </c>
       <c r="T60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="U60" s="3">
         <v>10000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4375,7 +4518,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4387,78 +4530,81 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>16500</v>
       </c>
       <c r="L61" s="3">
         <v>16500</v>
       </c>
       <c r="M61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="N61" s="3">
         <v>16000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>17200</v>
       </c>
       <c r="Q61" s="3">
         <v>17200</v>
       </c>
       <c r="R61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="S61" s="3">
         <v>17300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
         <v>2100</v>
       </c>
       <c r="F62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4476,22 +4622,22 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -4509,7 +4655,7 @@
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4520,8 +4666,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E66" s="3">
         <v>51700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>23400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-210500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-195900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-190100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-181800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-171100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-194900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-193100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-191000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-189200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-187600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-185800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-182700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-179200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-175200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-170800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-166100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-162700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-158000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-154900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-151800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-148000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-144600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E76" s="3">
         <v>47900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-5300</v>
       </c>
       <c r="W76" s="3">
         <v>-5300</v>
       </c>
       <c r="X76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-3100</v>
       </c>
       <c r="W81" s="3">
         <v>-3100</v>
       </c>
       <c r="X81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5827,7 +6026,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5866,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6392,7 +6613,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -6401,11 +6622,11 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6460,8 +6681,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6841,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6623,7 +6853,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -6632,11 +6862,11 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6691,8 +6921,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7271,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>13600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>700</v>
       </c>
       <c r="Z100" s="3">
         <v>700</v>
       </c>
       <c r="AA100" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,373 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E8" s="3">
         <v>34400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>64400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E9" s="3">
         <v>32200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>46800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
       </c>
       <c r="K10" s="3">
         <v>1500</v>
       </c>
       <c r="L10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>400</v>
       </c>
       <c r="R10" s="3">
+        <v>400</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
       <c r="X10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,37 +1060,38 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2000</v>
       </c>
       <c r="H12" s="3">
         <v>2000</v>
       </c>
       <c r="I12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>700</v>
       </c>
       <c r="M12" s="3">
         <v>700</v>
@@ -1086,7 +1100,7 @@
         <v>700</v>
       </c>
       <c r="O12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P12" s="3">
         <v>600</v>
@@ -1101,34 +1115,37 @@
         <v>600</v>
       </c>
       <c r="T12" s="3">
+        <v>600</v>
+      </c>
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>1500</v>
       </c>
       <c r="Z12" s="3">
         <v>1500</v>
       </c>
       <c r="AA12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB12" s="3">
         <v>1300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,8 +1224,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1287,8 +1307,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E17" s="3">
         <v>44100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>60300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>11700</v>
       </c>
       <c r="U17" s="3">
         <v>11700</v>
       </c>
       <c r="V17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="W17" s="3">
         <v>13400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>33900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-3000</v>
       </c>
       <c r="X18" s="3">
         <v>-3000</v>
       </c>
       <c r="Y18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,37 +1617,38 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1623,7 +1657,7 @@
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-200</v>
@@ -1632,13 +1666,13 @@
         <v>-200</v>
       </c>
       <c r="R20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S20" s="3">
         <v>-300</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1656,96 +1690,102 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-2900</v>
       </c>
       <c r="X21" s="3">
         <v>-2900</v>
       </c>
       <c r="Y21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1779,8 +1819,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
@@ -1797,11 +1837,11 @@
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1816,7 +1856,7 @@
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1824,88 +1864,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-3100</v>
       </c>
       <c r="X23" s="3">
         <v>-3100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1925,11 +1971,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1984,8 +2030,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-3100</v>
       </c>
       <c r="X26" s="3">
         <v>-3100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-3100</v>
       </c>
       <c r="X27" s="3">
         <v>-3100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2445,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,37 +2611,40 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -2583,7 +2653,7 @@
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>200</v>
@@ -2592,13 +2662,13 @@
         <v>200</v>
       </c>
       <c r="R32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S32" s="3">
         <v>300</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2616,96 +2686,102 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-3100</v>
       </c>
       <c r="X33" s="3">
         <v>-3100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-3100</v>
       </c>
       <c r="X35" s="3">
         <v>-3100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3095,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,328 +3259,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
         <v>10700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4800</v>
       </c>
       <c r="I43" s="3">
         <v>4800</v>
       </c>
       <c r="J43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K43" s="3">
         <v>5700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2400</v>
       </c>
       <c r="R43" s="3">
         <v>2400</v>
       </c>
       <c r="S43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2800</v>
       </c>
       <c r="V43" s="3">
         <v>2800</v>
       </c>
       <c r="W43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X43" s="3">
         <v>3000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E44" s="3">
         <v>18400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>21900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E45" s="3">
         <v>21000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3600</v>
       </c>
       <c r="N45" s="3">
         <v>3600</v>
       </c>
       <c r="O45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2500</v>
       </c>
       <c r="S45" s="3">
         <v>2500</v>
       </c>
       <c r="T45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E46" s="3">
         <v>73400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>84800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>88000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>15000</v>
       </c>
       <c r="V46" s="3">
         <v>15000</v>
       </c>
       <c r="W46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="X46" s="3">
         <v>16900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>20200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>19100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>19300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,76 +3674,79 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
       </c>
       <c r="U48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V48" s="3">
         <v>400</v>
       </c>
       <c r="W48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X48" s="3">
         <v>500</v>
       </c>
       <c r="Y48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z48" s="3">
         <v>600</v>
@@ -3647,10 +3755,13 @@
         <v>600</v>
       </c>
       <c r="AB48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,8 +3840,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +4006,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3900,8 +4020,8 @@
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="3">
-        <v>200</v>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3912,14 +4032,14 @@
       <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
+      <c r="J52" s="3">
+        <v>200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="3">
-        <v>1300</v>
+      <c r="L52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M52" s="3">
         <v>1300</v>
@@ -3928,7 +4048,7 @@
         <v>1300</v>
       </c>
       <c r="O52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P52" s="3">
         <v>1400</v>
@@ -3955,7 +4075,7 @@
         <v>1400</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -3969,8 +4089,11 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E54" s="3">
         <v>77000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>99600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>88500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>72900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,209 +4319,216 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E57" s="3">
         <v>24100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>8200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2200</v>
       </c>
       <c r="V58" s="3">
         <v>2200</v>
       </c>
       <c r="W58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1600</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
       </c>
       <c r="L59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1300</v>
       </c>
       <c r="Q59" s="3">
         <v>1300</v>
@@ -4400,128 +4537,134 @@
         <v>1300</v>
       </c>
       <c r="S59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1000</v>
       </c>
       <c r="V59" s="3">
         <v>1000</v>
       </c>
       <c r="W59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E60" s="3">
         <v>36200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>13100</v>
       </c>
       <c r="T60" s="3">
         <v>13100</v>
       </c>
       <c r="U60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="V60" s="3">
         <v>10000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4533,81 +4676,84 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>16500</v>
       </c>
       <c r="M61" s="3">
         <v>16500</v>
       </c>
       <c r="N61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="O61" s="3">
         <v>16000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>17200</v>
       </c>
       <c r="R61" s="3">
         <v>17200</v>
       </c>
       <c r="S61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="T61" s="3">
         <v>17300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2100</v>
       </c>
       <c r="F62" s="3">
         <v>2100</v>
       </c>
       <c r="G62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H62" s="3">
         <v>1700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4625,22 +4771,22 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -4658,7 +4804,7 @@
         <v>100</v>
       </c>
       <c r="Y62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4669,8 +4815,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E66" s="3">
         <v>38400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>23700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>23400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-223400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-210500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-200900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-195900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-190100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-181800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-171100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-198900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-194900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-193100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-191000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-189200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-187600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-185800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-182700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-179200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-175200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-170800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-166100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-162700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-158000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-154900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-151800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-148000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-144600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E76" s="3">
         <v>38700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-9000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-5300</v>
       </c>
       <c r="X76" s="3">
         <v>-5300</v>
       </c>
       <c r="Y76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-3100</v>
       </c>
       <c r="X81" s="3">
         <v>-3100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6212,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6029,7 +6228,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -6068,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -6094,8 +6293,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,8 +6824,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6616,7 +6837,7 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -6625,11 +6846,11 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -6684,8 +6905,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,8 +7071,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6856,7 +7086,7 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -6865,11 +7095,11 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6924,8 +7154,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,88 +7517,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>25900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>13600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>700</v>
       </c>
       <c r="AA100" s="3">
         <v>700</v>
       </c>
       <c r="AB100" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7683,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>NLST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,386 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>64400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>20100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>46800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>34300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1500</v>
       </c>
       <c r="L10" s="3">
         <v>1500</v>
       </c>
       <c r="M10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
       <c r="S10" s="3">
+        <v>400</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
       </c>
       <c r="Y10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z10" s="3">
         <v>700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,40 +1074,41 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2000</v>
       </c>
       <c r="I12" s="3">
         <v>2000</v>
       </c>
       <c r="J12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>700</v>
       </c>
       <c r="N12" s="3">
         <v>700</v>
@@ -1103,7 +1117,7 @@
         <v>700</v>
       </c>
       <c r="P12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q12" s="3">
         <v>600</v>
@@ -1118,34 +1132,37 @@
         <v>600</v>
       </c>
       <c r="U12" s="3">
+        <v>600</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>1500</v>
       </c>
       <c r="AA12" s="3">
         <v>1500</v>
       </c>
       <c r="AB12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC12" s="3">
         <v>1300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,8 +1244,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1310,8 +1330,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1393,8 +1416,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E17" s="3">
         <v>34600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>11700</v>
       </c>
       <c r="V17" s="3">
         <v>11700</v>
       </c>
       <c r="W17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="X17" s="3">
         <v>13400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>12600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>33900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-3000</v>
       </c>
       <c r="Y18" s="3">
         <v>-3000</v>
       </c>
       <c r="Z18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,40 +1651,41 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1660,7 +1694,7 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
@@ -1669,13 +1703,13 @@
         <v>-200</v>
       </c>
       <c r="S20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>-300</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1693,99 +1727,105 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-2900</v>
       </c>
       <c r="Y21" s="3">
         <v>-2900</v>
       </c>
       <c r="Z21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1822,8 +1862,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -1840,11 +1880,11 @@
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1859,7 +1899,7 @@
         <v>100</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1867,91 +1907,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-3100</v>
       </c>
       <c r="Y23" s="3">
         <v>-3100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1974,11 +2020,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -2033,8 +2079,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-3100</v>
       </c>
       <c r="Y26" s="3">
         <v>-3100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-3100</v>
       </c>
       <c r="Y27" s="3">
         <v>-3100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2448,8 +2509,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,40 +2681,43 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -2656,7 +2726,7 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
@@ -2665,13 +2735,13 @@
         <v>200</v>
       </c>
       <c r="S32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T32" s="3">
         <v>300</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2689,99 +2759,105 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-3100</v>
       </c>
       <c r="Y33" s="3">
         <v>-3100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-3100</v>
       </c>
       <c r="Y35" s="3">
         <v>-3100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,91 +3182,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E41" s="3">
         <v>25000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3262,340 +3352,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E43" s="3">
         <v>8200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4800</v>
       </c>
       <c r="J43" s="3">
         <v>4800</v>
       </c>
       <c r="K43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L43" s="3">
         <v>5700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2400</v>
       </c>
       <c r="S43" s="3">
         <v>2400</v>
       </c>
       <c r="T43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3200</v>
-      </c>
-      <c r="V43" s="3">
-        <v>2800</v>
       </c>
       <c r="W43" s="3">
         <v>2800</v>
       </c>
       <c r="X43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Y43" s="3">
         <v>3000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E44" s="3">
         <v>10700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>19900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3600</v>
       </c>
       <c r="O45" s="3">
         <v>3600</v>
       </c>
       <c r="P45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2500</v>
       </c>
       <c r="T45" s="3">
         <v>2500</v>
       </c>
       <c r="U45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E46" s="3">
         <v>63800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>73400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>84800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>88000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>98100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>72200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27100</v>
-      </c>
-      <c r="V46" s="3">
-        <v>15000</v>
       </c>
       <c r="W46" s="3">
         <v>15000</v>
       </c>
       <c r="X46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Y46" s="3">
         <v>16900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>20200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>19100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>19300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3677,79 +3782,82 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
       </c>
       <c r="M48" s="3">
+        <v>400</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>300</v>
       </c>
       <c r="V48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W48" s="3">
         <v>400</v>
       </c>
       <c r="X48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y48" s="3">
         <v>500</v>
       </c>
       <c r="Z48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AA48" s="3">
         <v>600</v>
@@ -3758,10 +3866,13 @@
         <v>600</v>
       </c>
       <c r="AC48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3843,8 +3954,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,8 +4126,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4023,8 +4143,8 @@
       <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="3">
-        <v>200</v>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -4035,14 +4155,14 @@
       <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
+      <c r="K52" s="3">
+        <v>200</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="3">
-        <v>1300</v>
+      <c r="M52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N52" s="3">
         <v>1300</v>
@@ -4051,7 +4171,7 @@
         <v>1300</v>
       </c>
       <c r="P52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1400</v>
@@ -4078,7 +4198,7 @@
         <v>1400</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -4092,8 +4212,11 @@
       <c r="AC52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E54" s="3">
         <v>67300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>77000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>99600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>88500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>72900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>16800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>20000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,218 +4450,225 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E57" s="3">
         <v>28500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2200</v>
       </c>
       <c r="W58" s="3">
         <v>2200</v>
       </c>
       <c r="X58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1600</v>
       </c>
       <c r="L59" s="3">
         <v>1600</v>
       </c>
       <c r="M59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1300</v>
       </c>
       <c r="R59" s="3">
         <v>1300</v>
@@ -4540,134 +4677,140 @@
         <v>1300</v>
       </c>
       <c r="T59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1000</v>
       </c>
       <c r="W59" s="3">
         <v>1000</v>
       </c>
       <c r="X59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E60" s="3">
         <v>38100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>13100</v>
       </c>
       <c r="U60" s="3">
         <v>13100</v>
       </c>
       <c r="V60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="W60" s="3">
         <v>10000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4679,84 +4822,87 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>16500</v>
       </c>
       <c r="N61" s="3">
         <v>16500</v>
       </c>
       <c r="O61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="P61" s="3">
         <v>16000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>17200</v>
       </c>
       <c r="S61" s="3">
         <v>17200</v>
       </c>
       <c r="T61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="U61" s="3">
         <v>17300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2100</v>
       </c>
       <c r="G62" s="3">
         <v>2100</v>
       </c>
       <c r="H62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4774,22 +4920,22 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1000</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
@@ -4807,7 +4953,7 @@
         <v>100</v>
       </c>
       <c r="Z62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4818,8 +4964,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E66" s="3">
         <v>40100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>23700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>23400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-223400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-210500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-195900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-190100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-181800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-171100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-198900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-194900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-193100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-191000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-189200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-187600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-185800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-182700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-179200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-175200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-170800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-166100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-162700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-158000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-154900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-151800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-148000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-144600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E76" s="3">
         <v>27200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-9000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-5300</v>
       </c>
       <c r="Y76" s="3">
         <v>-5300</v>
       </c>
       <c r="Z76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-3100</v>
       </c>
       <c r="Y81" s="3">
         <v>-3100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,8 +6411,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6231,7 +6430,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -6270,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -6296,8 +6495,11 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,13 +7045,14 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -6840,7 +7061,7 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -6849,11 +7070,11 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6908,8 +7129,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,13 +7301,16 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -7089,7 +7319,7 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -7098,11 +7328,11 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -7157,8 +7387,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7421,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7271,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,91 +7763,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>25900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>13600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>700</v>
       </c>
       <c r="AB100" s="3">
         <v>700</v>
       </c>
       <c r="AC100" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7686,87 +7935,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>50200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E9" s="3">
         <v>8500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>46800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>34300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>10800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1500</v>
       </c>
       <c r="M10" s="3">
         <v>1500</v>
       </c>
       <c r="N10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
       <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
-      </c>
-      <c r="X10" s="3">
-        <v>400</v>
       </c>
       <c r="Y10" s="3">
         <v>400</v>
       </c>
       <c r="Z10" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA10" s="3">
         <v>700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1084,34 +1098,34 @@
         <v>2300</v>
       </c>
       <c r="E12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2000</v>
       </c>
       <c r="J12" s="3">
         <v>2000</v>
       </c>
       <c r="K12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>700</v>
       </c>
       <c r="O12" s="3">
         <v>700</v>
@@ -1120,7 +1134,7 @@
         <v>700</v>
       </c>
       <c r="Q12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R12" s="3">
         <v>600</v>
@@ -1135,34 +1149,37 @@
         <v>600</v>
       </c>
       <c r="V12" s="3">
+        <v>600</v>
+      </c>
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1200</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>1500</v>
       </c>
       <c r="AB12" s="3">
         <v>1500</v>
       </c>
       <c r="AC12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD12" s="3">
         <v>1300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1247,8 +1264,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1333,8 +1353,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1419,8 +1442,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E17" s="3">
         <v>24900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>11700</v>
       </c>
       <c r="W17" s="3">
         <v>11700</v>
       </c>
       <c r="X17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="Y17" s="3">
         <v>13400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>15100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>12600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-3000</v>
       </c>
       <c r="Z18" s="3">
         <v>-3000</v>
       </c>
       <c r="AA18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-4200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,43 +1685,44 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1697,7 +1731,7 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-200</v>
@@ -1706,13 +1740,13 @@
         <v>-200</v>
       </c>
       <c r="T20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U20" s="3">
         <v>-300</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1730,102 +1764,108 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-2900</v>
       </c>
       <c r="Z21" s="3">
         <v>-2900</v>
       </c>
       <c r="AA21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,8 +1905,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
@@ -1883,11 +1923,11 @@
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1902,7 +1942,7 @@
         <v>100</v>
       </c>
       <c r="AB22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
@@ -1910,94 +1950,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-3100</v>
       </c>
       <c r="Z23" s="3">
         <v>-3100</v>
       </c>
       <c r="AA23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2023,11 +2069,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -2082,8 +2128,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-3100</v>
       </c>
       <c r="Z26" s="3">
         <v>-3100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-3100</v>
       </c>
       <c r="Z27" s="3">
         <v>-3100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,43 +2751,46 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -2729,7 +2799,7 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>200</v>
@@ -2738,13 +2808,13 @@
         <v>200</v>
       </c>
       <c r="T32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U32" s="3">
         <v>300</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2762,102 +2832,108 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-3100</v>
       </c>
       <c r="Z33" s="3">
         <v>-3100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-3100</v>
       </c>
       <c r="Z35" s="3">
         <v>-3100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
         <v>34500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,352 +3445,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4800</v>
       </c>
       <c r="K43" s="3">
         <v>4800</v>
       </c>
       <c r="L43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M43" s="3">
         <v>5700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
-      </c>
-      <c r="S43" s="3">
-        <v>2400</v>
       </c>
       <c r="T43" s="3">
         <v>2400</v>
       </c>
       <c r="U43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V43" s="3">
         <v>2900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3200</v>
-      </c>
-      <c r="W43" s="3">
-        <v>2800</v>
       </c>
       <c r="X43" s="3">
         <v>2800</v>
       </c>
       <c r="Y43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z43" s="3">
         <v>3000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E44" s="3">
         <v>9000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>3600</v>
       </c>
       <c r="P45" s="3">
         <v>3600</v>
       </c>
       <c r="Q45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>2500</v>
       </c>
       <c r="U45" s="3">
         <v>2500</v>
       </c>
       <c r="V45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E46" s="3">
         <v>52500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>95800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>84800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>88000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>72200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>15000</v>
       </c>
       <c r="X46" s="3">
         <v>15000</v>
       </c>
       <c r="Y46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Z46" s="3">
         <v>16900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>20200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>19100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>19300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3785,82 +3890,85 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1700</v>
-      </c>
-      <c r="U48" s="3">
-        <v>300</v>
       </c>
       <c r="V48" s="3">
         <v>300</v>
       </c>
       <c r="W48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X48" s="3">
         <v>400</v>
       </c>
       <c r="Y48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z48" s="3">
         <v>500</v>
       </c>
       <c r="AA48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB48" s="3">
         <v>600</v>
@@ -3869,10 +3977,13 @@
         <v>600</v>
       </c>
       <c r="AD48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3957,8 +4068,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,13 +4246,16 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>10</v>
+      <c r="D52" s="3">
+        <v>200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -4146,8 +4266,8 @@
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="3">
-        <v>200</v>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -4158,14 +4278,14 @@
       <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
+      <c r="L52" s="3">
+        <v>200</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N52" s="3">
-        <v>1300</v>
+      <c r="N52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O52" s="3">
         <v>1300</v>
@@ -4174,7 +4294,7 @@
         <v>1300</v>
       </c>
       <c r="Q52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="R52" s="3">
         <v>1400</v>
@@ -4201,7 +4321,7 @@
         <v>1400</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4215,8 +4335,11 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E54" s="3">
         <v>55700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>67300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>77000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>99600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>88500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>16800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>19800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>20000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,227 +4581,234 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E57" s="3">
         <v>26400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2600</v>
-      </c>
-      <c r="W58" s="3">
-        <v>2200</v>
       </c>
       <c r="X58" s="3">
         <v>2200</v>
       </c>
       <c r="Y58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1600</v>
       </c>
       <c r="M59" s="3">
         <v>1600</v>
       </c>
       <c r="N59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1300</v>
       </c>
       <c r="S59" s="3">
         <v>1300</v>
@@ -4680,123 +4817,129 @@
         <v>1300</v>
       </c>
       <c r="U59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1000</v>
       </c>
       <c r="X59" s="3">
         <v>1000</v>
       </c>
       <c r="Y59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E60" s="3">
         <v>30600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>13100</v>
       </c>
       <c r="V60" s="3">
         <v>13100</v>
       </c>
       <c r="W60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="X60" s="3">
         <v>10000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4804,16 +4947,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4825,87 +4968,90 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>16500</v>
       </c>
       <c r="O61" s="3">
         <v>16500</v>
       </c>
       <c r="P61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>16000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>17200</v>
       </c>
       <c r="T61" s="3">
         <v>17200</v>
       </c>
       <c r="U61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="V61" s="3">
         <v>17300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>14300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2100</v>
       </c>
       <c r="H62" s="3">
         <v>2100</v>
       </c>
       <c r="I62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4923,22 +5069,22 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
@@ -4956,7 +5102,7 @@
         <v>100</v>
       </c>
       <c r="AA62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB62" s="3">
         <v>0</v>
@@ -4967,8 +5113,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E66" s="3">
         <v>32400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>51000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>26000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>23700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>23400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>20500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-253200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-239200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-223400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-210500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-195900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-190100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-181800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-171100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-198900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-194900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-193100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-191000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-189200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-187600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-185800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-182700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-179200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-175200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-170800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-166100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-162700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-158000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-154900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-151800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-148000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-144600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E76" s="3">
         <v>23300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-11700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-12100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-8400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-5300</v>
       </c>
       <c r="Z76" s="3">
         <v>-5300</v>
       </c>
       <c r="AA76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-3100</v>
       </c>
       <c r="Z81" s="3">
         <v>-3100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,8 +6610,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6433,7 +6632,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6472,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -6498,8 +6697,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-6600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,8 +7266,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7055,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -7064,7 +7285,7 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -7073,11 +7294,11 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -7132,8 +7353,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,8 +7531,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7313,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -7322,7 +7552,7 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -7331,11 +7561,11 @@
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -7390,8 +7620,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,8 +7655,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7508,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,94 +8009,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E100" s="3">
         <v>5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>25900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>13600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>5600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>700</v>
       </c>
       <c r="AC100" s="3">
         <v>700</v>
       </c>
       <c r="AD100" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7938,90 +8187,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NLST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,399 +665,412 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E8" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>5500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E9" s="3">
         <v>9800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>46800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>34300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>10800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1500</v>
       </c>
       <c r="N10" s="3">
         <v>1500</v>
       </c>
       <c r="O10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
       <c r="U10" s="3">
+        <v>400</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>500</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>400</v>
       </c>
       <c r="Z10" s="3">
         <v>400</v>
       </c>
       <c r="AA10" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB10" s="3">
         <v>700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,8 +1102,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,34 +1115,34 @@
         <v>2300</v>
       </c>
       <c r="F12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2000</v>
       </c>
       <c r="K12" s="3">
         <v>2000</v>
       </c>
       <c r="L12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>700</v>
       </c>
       <c r="P12" s="3">
         <v>700</v>
@@ -1137,7 +1151,7 @@
         <v>700</v>
       </c>
       <c r="R12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S12" s="3">
         <v>600</v>
@@ -1152,34 +1166,37 @@
         <v>600</v>
       </c>
       <c r="W12" s="3">
+        <v>600</v>
+      </c>
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1200</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>1500</v>
       </c>
       <c r="AC12" s="3">
         <v>1500</v>
       </c>
       <c r="AD12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE12" s="3">
         <v>1300</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,8 +1284,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,8 +1376,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1445,8 +1468,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1475,186 +1501,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E17" s="3">
         <v>24300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>60300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>11700</v>
       </c>
       <c r="X17" s="3">
         <v>11700</v>
       </c>
       <c r="Y17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>13400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>12000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>15100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>12600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4500</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-3000</v>
       </c>
       <c r="AA18" s="3">
         <v>-3000</v>
       </c>
       <c r="AB18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-4200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1686,46 +1719,47 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1734,7 +1768,7 @@
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-200</v>
@@ -1743,13 +1777,13 @@
         <v>-200</v>
       </c>
       <c r="U20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V20" s="3">
         <v>-300</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1767,105 +1801,111 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4500</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-2900</v>
       </c>
       <c r="AA21" s="3">
         <v>-2900</v>
       </c>
       <c r="AB21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-3800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1948,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
@@ -1926,11 +1966,11 @@
       <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
@@ -1945,7 +1985,7 @@
         <v>100</v>
       </c>
       <c r="AC22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
@@ -1953,97 +1993,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-3100</v>
       </c>
       <c r="AA23" s="3">
         <v>-3100</v>
       </c>
       <c r="AB23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2072,11 +2118,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -2131,8 +2177,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2220,186 +2269,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-3100</v>
       </c>
       <c r="AA26" s="3">
         <v>-3100</v>
       </c>
       <c r="AB26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-3100</v>
       </c>
       <c r="AA27" s="3">
         <v>-3100</v>
       </c>
       <c r="AB27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2487,8 +2545,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2576,8 +2637,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2665,8 +2729,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2754,46 +2821,49 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -2802,7 +2872,7 @@
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>200</v>
@@ -2811,13 +2881,13 @@
         <v>200</v>
       </c>
       <c r="U32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V32" s="3">
         <v>300</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2835,105 +2905,111 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-3100</v>
       </c>
       <c r="AA33" s="3">
         <v>-3100</v>
       </c>
       <c r="AB33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3021,191 +3097,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-3100</v>
       </c>
       <c r="AA35" s="3">
         <v>-3100</v>
       </c>
       <c r="AB35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3237,8 +3322,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3270,97 +3356,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E41" s="3">
         <v>24300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3448,364 +3538,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4800</v>
       </c>
       <c r="L43" s="3">
         <v>4800</v>
       </c>
       <c r="M43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N43" s="3">
         <v>5700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2500</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2400</v>
       </c>
       <c r="U43" s="3">
         <v>2400</v>
       </c>
       <c r="V43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W43" s="3">
         <v>2900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3200</v>
-      </c>
-      <c r="X43" s="3">
-        <v>2800</v>
       </c>
       <c r="Y43" s="3">
         <v>2800</v>
       </c>
       <c r="Z43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA43" s="3">
         <v>3000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E44" s="3">
         <v>10000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3600</v>
       </c>
       <c r="Q45" s="3">
         <v>3600</v>
       </c>
       <c r="R45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S45" s="3">
         <v>3400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
-      </c>
-      <c r="U45" s="3">
-        <v>2500</v>
       </c>
       <c r="V45" s="3">
         <v>2500</v>
       </c>
       <c r="W45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>5600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E46" s="3">
         <v>43600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>73400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>84800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>88000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>23200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27100</v>
-      </c>
-      <c r="X46" s="3">
-        <v>15000</v>
       </c>
       <c r="Y46" s="3">
         <v>15000</v>
       </c>
       <c r="Z46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="AA46" s="3">
         <v>16900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>20200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>19100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>19300</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3893,85 +3998,88 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>300</v>
       </c>
       <c r="W48" s="3">
         <v>300</v>
       </c>
       <c r="X48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y48" s="3">
         <v>400</v>
       </c>
       <c r="Z48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA48" s="3">
         <v>500</v>
       </c>
       <c r="AB48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC48" s="3">
         <v>600</v>
@@ -3980,10 +4088,13 @@
         <v>600</v>
       </c>
       <c r="AE48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4071,8 +4182,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4160,8 +4274,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4249,16 +4366,19 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -4269,8 +4389,8 @@
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="3">
-        <v>200</v>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -4281,14 +4401,14 @@
       <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
+      <c r="M52" s="3">
+        <v>200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="3">
-        <v>1300</v>
+      <c r="O52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P52" s="3">
         <v>1300</v>
@@ -4297,7 +4417,7 @@
         <v>1300</v>
       </c>
       <c r="R52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="S52" s="3">
         <v>1400</v>
@@ -4324,7 +4444,7 @@
         <v>1400</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
@@ -4338,8 +4458,11 @@
       <c r="AE52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4427,97 +4550,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E54" s="3">
         <v>47000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>77000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>99600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>88500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>91200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>16800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>19800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>20000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>23200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4549,8 +4678,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4582,236 +4712,243 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E57" s="3">
         <v>21000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2600</v>
-      </c>
-      <c r="X58" s="3">
-        <v>2200</v>
       </c>
       <c r="Y58" s="3">
         <v>2200</v>
       </c>
       <c r="Z58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1600</v>
       </c>
       <c r="N59" s="3">
         <v>1600</v>
       </c>
       <c r="O59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1300</v>
       </c>
       <c r="T59" s="3">
         <v>1300</v>
@@ -4820,126 +4957,132 @@
         <v>1300</v>
       </c>
       <c r="V59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1000</v>
       </c>
       <c r="Y59" s="3">
         <v>1000</v>
       </c>
       <c r="Z59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E60" s="3">
         <v>23700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>13100</v>
       </c>
       <c r="W60" s="3">
         <v>13100</v>
       </c>
       <c r="X60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>10000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4950,16 +5093,16 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4971,90 +5114,93 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>16500</v>
       </c>
       <c r="P61" s="3">
         <v>16500</v>
       </c>
       <c r="Q61" s="3">
+        <v>16500</v>
+      </c>
+      <c r="R61" s="3">
         <v>16000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15700</v>
-      </c>
-      <c r="T61" s="3">
-        <v>17200</v>
       </c>
       <c r="U61" s="3">
         <v>17200</v>
       </c>
       <c r="V61" s="3">
+        <v>17200</v>
+      </c>
+      <c r="W61" s="3">
         <v>17300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>14400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>14300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2100</v>
       </c>
       <c r="I62" s="3">
         <v>2100</v>
       </c>
       <c r="J62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -5072,22 +5218,22 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
@@ -5105,7 +5251,7 @@
         <v>100</v>
       </c>
       <c r="AB62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
@@ -5116,8 +5262,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5205,8 +5354,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5294,8 +5446,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5383,97 +5538,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E66" s="3">
         <v>25400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>29400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>26000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>23700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>23400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>20500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5505,8 +5666,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5594,8 +5756,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5683,8 +5848,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5772,8 +5940,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5861,97 +6032,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-270600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-253200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-239200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-223400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-210500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-195900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-190100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-181800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-171100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-198900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-194900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-193100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-191000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-189200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-187600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-185800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-182700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-179200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-175200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-170800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-166100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-162700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-158000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-154900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-151800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-148000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-144600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-140700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6039,8 +6216,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6128,8 +6308,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6217,97 +6400,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E76" s="3">
         <v>21600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-12100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-9000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-8000</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-5300</v>
       </c>
       <c r="AA76" s="3">
         <v>-5300</v>
       </c>
       <c r="AB76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-6900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6395,191 +6584,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4700</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-3100</v>
       </c>
       <c r="AA81" s="3">
         <v>-3100</v>
       </c>
       <c r="AB81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6611,8 +6809,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6635,7 +6834,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6674,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -6700,8 +6899,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6789,8 +6991,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6878,8 +7083,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6967,8 +7175,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7056,8 +7267,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7145,97 +7359,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-6600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7267,8 +7487,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7279,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -7288,7 +7509,7 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -7297,11 +7518,11 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -7356,8 +7577,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7445,8 +7669,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7534,8 +7761,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7546,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -7555,7 +7785,7 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -7564,11 +7794,11 @@
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7623,8 +7853,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7656,8 +7889,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7745,8 +7979,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7834,8 +8071,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7923,8 +8163,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8012,97 +8255,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E100" s="3">
         <v>10900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>13600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>700</v>
       </c>
       <c r="AD100" s="3">
         <v>700</v>
       </c>
       <c r="AE100" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF100" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8190,93 +8439,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-5900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>4600</v>
       </c>
     </row>
